--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">User_01</t>
   </si>
   <si>
-    <t xml:space="preserve">pdhcp274910770</t>
+    <t xml:space="preserve">pdhcp25236366</t>
   </si>
   <si>
     <t xml:space="preserve">10.11.11.1</t>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">User_02</t>
   </si>
   <si>
-    <t xml:space="preserve">pdhcp2299620383</t>
+    <t xml:space="preserve">pdhcp663822498</t>
   </si>
   <si>
     <t xml:space="preserve">10.11.1.1</t>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t xml:space="preserve">10.11.1.254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pdhcp229962038</t>
   </si>
   <si>
     <t xml:space="preserve">10.11.11.230</t>
@@ -208,7 +205,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -333,19 +330,19 @@
         <v>123</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>123</v>
@@ -353,30 +350,12 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>123</v>
@@ -388,18 +367,18 @@
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>8</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>123</v>
@@ -411,18 +390,18 @@
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>123</v>
@@ -431,7 +410,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>9</v>
@@ -440,12 +419,12 @@
         <v>8</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>123</v>
@@ -454,22 +433,44 @@
         <v>8</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="0" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -205,7 +205,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -43,40 +43,148 @@
     <t xml:space="preserve">groups</t>
   </si>
   <si>
+    <t xml:space="preserve">User_012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pdhcp25236366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.11.11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group_01,Group_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yousef123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pdhcp663822498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.11.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hi.1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.11.11.230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.11.1.-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1111.2556.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pdhcp25314265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.11.1.240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group_01,Group_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duplicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Already Added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pdhcp2531426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Pool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group_08,Group_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Group 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group_08,Group_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Group both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group_01,Group_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Group 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group_08,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_121</t>
+  </si>
+  <si>
     <t xml:space="preserve">User_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pdhcp25236366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.11.11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group_01,Group_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pdhcp663822498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.11.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.11.1.254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.11.11.230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group_01</t>
   </si>
   <si>
     <t xml:space="preserve">User_016</t>
@@ -110,7 +218,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -132,6 +240,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,12 +292,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -202,16 +322,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.19"/>
   </cols>
@@ -243,9 +364,6 @@
       <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>123</v>
-      </c>
       <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
@@ -261,62 +379,53 @@
       <c r="G2" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="K2" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
@@ -324,159 +433,297 @@
       <c r="G5" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="K5" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
         <v>123</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>8</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>123</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>2</v>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>3</v>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>123</v>
+        <v>32</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>2</v>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>32</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -485,11 +732,127 @@
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -88,6 +88,12 @@
     <t xml:space="preserve">Wrong IP</t>
   </si>
   <si>
+    <t xml:space="preserve">1.1.hi.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hi.1.hi.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.11.11.230</t>
   </si>
   <si>
@@ -109,7 +115,7 @@
     <t xml:space="preserve">10.1111.2556.1</t>
   </si>
   <si>
-    <t xml:space="preserve">User_051</t>
+    <t xml:space="preserve">User_052</t>
   </si>
   <si>
     <t xml:space="preserve">pdhcp25314265</t>
@@ -139,6 +145,9 @@
     <t xml:space="preserve">pdhcp2531426</t>
   </si>
   <si>
+    <t xml:space="preserve">No Address</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wrong Pool</t>
   </si>
   <si>
@@ -160,6 +169,9 @@
     <t xml:space="preserve">User_092</t>
   </si>
   <si>
+    <t xml:space="preserve">NoAddress</t>
+  </si>
+  <si>
     <t xml:space="preserve">Group_01,Group_10</t>
   </si>
   <si>
@@ -184,31 +196,19 @@
     <t xml:space="preserve">User_121</t>
   </si>
   <si>
-    <t xml:space="preserve">User_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.11.11.234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group_01,Group_02,Group_03,Group_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.11.11.266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2,3,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_07</t>
+    <t xml:space="preserve">yousefsdfa123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group_01,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,,</t>
   </si>
 </sst>
 </file>
@@ -218,7 +218,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -249,6 +249,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -292,7 +298,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -303,6 +309,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -325,7 +335,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -438,155 +448,155 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="B6" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>2</v>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>132</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="B8" s="0" t="n">
-        <v>132</v>
+        <v>123</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>123</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>132</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="K10" s="0" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>123</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>12</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>123</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>12</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -597,261 +607,213 @@
         <v>123</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>123</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>12</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>123</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>12</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="K18" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -218,7 +218,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -249,12 +249,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -311,7 +305,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,14 +329,14 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.19"/>
   </cols>
@@ -778,6 +772,9 @@
       </c>
       <c r="G20" s="0" t="s">
         <v>59</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -151,6 +151,12 @@
     <t xml:space="preserve">Wrong Pool</t>
   </si>
   <si>
+    <t xml:space="preserve">User_071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Pool</t>
+  </si>
+  <si>
     <t xml:space="preserve">Group_08,Group_03</t>
   </si>
   <si>
@@ -193,7 +199,7 @@
     <t xml:space="preserve">Group_08,</t>
   </si>
   <si>
-    <t xml:space="preserve">User_121</t>
+    <t xml:space="preserve">User_122</t>
   </si>
   <si>
     <t xml:space="preserve">yousefsdfa123</t>
@@ -209,6 +215,36 @@
   </si>
   <si>
     <t xml:space="preserve">,,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nopool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y.a.h.oo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no pool</t>
   </si>
 </sst>
 </file>
@@ -328,8 +364,8 @@
   </sheetPr>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -641,30 +677,18 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" s="0" t="s">
+      <c r="C15" s="0" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>123</v>
@@ -679,15 +703,15 @@
         <v>12</v>
       </c>
       <c r="G16" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>123</v>
@@ -696,21 +720,21 @@
         <v>32</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>123</v>
@@ -719,21 +743,21 @@
         <v>32</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>12</v>
       </c>
       <c r="G18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>123</v>
@@ -748,10 +772,10 @@
         <v>12</v>
       </c>
       <c r="G19" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,47 +789,152 @@
         <v>32</v>
       </c>
       <c r="E20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="K20" s="0" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="F21" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="K21" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F22" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
